--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3811.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3811.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.739945777611988</v>
+        <v>5.603556632995605</v>
       </c>
       <c r="B1">
-        <v>2.289546605777021</v>
+        <v>6.665385723114014</v>
       </c>
       <c r="C1">
-        <v>3.607110879148727</v>
+        <v>6.09206485748291</v>
       </c>
       <c r="D1">
-        <v>3.916123135001669</v>
+        <v>4.864583015441895</v>
       </c>
       <c r="E1">
-        <v>0.5728593242370872</v>
+        <v>2.166341304779053</v>
       </c>
     </row>
   </sheetData>
